--- a/P4_Audit.xlsx
+++ b/P4_Audit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Berri_Sarah_4_092022\Berri_Sarah_1_rapport_analyse_092022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Berri_Sarah_4_092022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5DCE92-A5B2-43A0-A631-C80ED28104CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8CC8D6-6F7F-4711-8B56-63C5BC4AC27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11460" yWindow="0" windowWidth="11604" windowHeight="11868" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Catégorie</t>
   </si>
@@ -130,13 +130,31 @@
   </si>
   <si>
     <t>https://analytics.google.com/</t>
+  </si>
+  <si>
+    <t>SEO</t>
+  </si>
+  <si>
+    <t>Optimisation technique</t>
+  </si>
+  <si>
+    <t>Analyser les résultats SEO et les Kpi</t>
+  </si>
+  <si>
+    <t>Ajout de la balise TAG dans le code HTML, un suivi est possible à partir de 3 mois</t>
+  </si>
+  <si>
+    <t>Implémenter les outils Google Analytics et créer les comptes nécessaires</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,8 +199,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +218,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -212,31 +243,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -246,11 +262,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,14 +517,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
     <col min="3" max="3" width="36.7265625" customWidth="1"/>
     <col min="4" max="4" width="35.6328125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
@@ -521,7 +572,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -537,9 +588,13 @@
       <c r="E2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="7"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
@@ -553,7 +608,11 @@
         <v>10</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -567,7 +626,11 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="5"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -583,7 +646,11 @@
         <v>20</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="5"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -604,182 +671,1557 @@
       <c r="F6" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" t="s">
+      <c r="F7" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+    </row>
+    <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+    </row>
+    <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+    </row>
+    <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+    </row>
+    <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+    </row>
+    <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+    </row>
+    <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+    </row>
+    <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+    </row>
+    <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+    </row>
+    <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+    </row>
+    <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+    </row>
+    <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="16"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+    </row>
+    <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="16"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+    </row>
+    <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+    </row>
+    <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+    </row>
+    <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="16"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+    </row>
+    <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="16"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+    </row>
+    <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="16"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+    </row>
+    <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+    </row>
+    <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="16"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+    </row>
+    <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="16"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+    </row>
+    <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+    </row>
+    <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+    </row>
+    <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="16"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+    </row>
+    <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+    </row>
+    <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="16"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+    </row>
+    <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="16"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+    </row>
+    <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="16"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+    </row>
+    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="17"/>
+      <c r="B137" s="17"/>
+    </row>
+    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="17"/>
+      <c r="B138" s="17"/>
+    </row>
+    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="17"/>
+      <c r="B139" s="17"/>
+    </row>
+    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="17"/>
+      <c r="B140" s="17"/>
+    </row>
+    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="17"/>
+      <c r="B141" s="17"/>
+    </row>
+    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="17"/>
+      <c r="B142" s="17"/>
+    </row>
+    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="17"/>
+      <c r="B143" s="17"/>
+    </row>
+    <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1637,7 +3079,10 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{C33D33E3-06FB-470E-A140-6D612B17C355}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/P4_Audit.xlsx
+++ b/P4_Audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Berri_Sarah_4_092022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8CC8D6-6F7F-4711-8B56-63C5BC4AC27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C138D44-5CDC-4280-A1CE-575FA59108B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11460" yWindow="0" windowWidth="11604" windowHeight="11868" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Catégorie</t>
   </si>
@@ -51,87 +51,6 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>DOCTYPE</t>
-  </si>
-  <si>
-    <t>Langue par défaut</t>
-  </si>
-  <si>
-    <t>Choisir "fr" ou "en"</t>
-  </si>
-  <si>
-    <t>Balise Titre</t>
-  </si>
-  <si>
-    <t>Donnez un titre à son site</t>
-  </si>
-  <si>
-    <t>Titre du site manquant</t>
-  </si>
-  <si>
-    <t>Couleur présente</t>
-  </si>
-  <si>
-    <t>Couleur présente dans les balises</t>
-  </si>
-  <si>
-    <t>Référencement site par titre</t>
-  </si>
-  <si>
-    <t>Aucune langue n'est choisie</t>
-  </si>
-  <si>
-    <t>Balise page 2</t>
-  </si>
-  <si>
-    <t>Lien vers la page 2 mal implémentée</t>
-  </si>
-  <si>
-    <t>Ne pas avoir des balises non fermées</t>
-  </si>
-  <si>
-    <t>Choisir langue</t>
-  </si>
-  <si>
-    <t>Faire attention à la syntaxe</t>
-  </si>
-  <si>
-    <t>image Logo</t>
-  </si>
-  <si>
-    <t>Les balises alt contiennent trop de mots</t>
-  </si>
-  <si>
-    <t>On ne peut pas avoir trop de mots clé dans une image</t>
-  </si>
-  <si>
-    <t>Simplifier la description</t>
-  </si>
-  <si>
-    <t>Agir sur ce problème là</t>
-  </si>
-  <si>
-    <t>httpshttps://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
-  </si>
-  <si>
-    <t>Balise div keywords</t>
-  </si>
-  <si>
-    <t>Balise tag</t>
-  </si>
-  <si>
-    <t>Il manque la balise  TAG de google analytics</t>
-  </si>
-  <si>
-    <t>Aucune données de récoltées</t>
-  </si>
-  <si>
-    <t>Implémentet une balise TAG</t>
-  </si>
-  <si>
-    <t>https://analytics.google.com/</t>
-  </si>
-  <si>
     <t>SEO</t>
   </si>
   <si>
@@ -148,6 +67,111 @@
   </si>
   <si>
     <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages</t>
+  </si>
+  <si>
+    <t>Absence de h2 dans certaines parties du code</t>
+  </si>
+  <si>
+    <r>
+      <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
+    </r>
+  </si>
+  <si>
+    <t>Favorisez les h2 pour chaque parties et respecter la hiérarchie</t>
+  </si>
+  <si>
+    <t>Ne passe pas le validateur  3WC</t>
+  </si>
+  <si>
+    <t>Les pages doivent passer la validation du 3WC</t>
+  </si>
+  <si>
+    <t>Le footer contient trop de lien qui n'ont pas de rapport avec le thème du site</t>
+  </si>
+  <si>
+    <t>Les mots-clés sont incohérents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'URL de la page contact ne comporte pas le nom de la page                                                                              les balises lang et title ne sont pas complétées,            les attributs alt des images sont toutes identiques  </t>
+  </si>
+  <si>
+    <t>Il est recommander de rajouter des mots-clés qui soient pertinents dans les balises titles, description</t>
+  </si>
+  <si>
+    <t>le CSS et le Js ne sont pas minifier</t>
+  </si>
+  <si>
+    <t>Balise "keywords"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette balise est obsolète car non lue par Google </t>
+  </si>
+  <si>
+    <t>Renommer l'URL de la page contact                            Renommer les balises lang et title                                                                                   Ajouter une description d'images dans les attributs alt et non une répétition de mots</t>
+  </si>
+  <si>
+    <t>Responsivité</t>
+  </si>
+  <si>
+    <t>Acessibilité</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055226-pensez-mobile-first</t>
+  </si>
+  <si>
+    <t>Avoir peu de liens mais de façon efficace et intelligente   Supprimer les liens qui n'ont pas de rapport avec le thème</t>
+  </si>
+  <si>
+    <t>Couleurs et textes</t>
+  </si>
+  <si>
+    <t>Le site n'est pas responsive, certains textes et images ne sont pas centrées et coupés dans la partie tablette et mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augmentez la taille des textes et le contraste afin d'avoir une cohérence entre les deux </t>
+  </si>
+  <si>
+    <t>La taille de textes est trop petite, le contraste entre la couleur de fonds et les textes est trop faible</t>
+  </si>
+  <si>
+    <t>Réduction de la taille des fichiers pour diminuer le temps de chargement des pages</t>
+  </si>
+  <si>
+    <t>Formulaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il faut que le site soit totalement responsive, et peu importe la taille d l'écran, il doit s'adapter à ceux-ci, </t>
+  </si>
+  <si>
+    <t>Le formulaire est accessible mais des modifications peuvent être y apportées</t>
+  </si>
+  <si>
+    <t>Revoir le design du formulaire et sa mise en page par exemple</t>
   </si>
 </sst>
 </file>
@@ -189,12 +213,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -206,8 +224,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,12 +246,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,61 +272,70 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -515,19 +554,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="22.26953125" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" customWidth="1"/>
-    <col min="4" max="4" width="35.6328125" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" customWidth="1"/>
+    <col min="3" max="3" width="47.26953125" customWidth="1"/>
+    <col min="4" max="4" width="53.1796875" customWidth="1"/>
+    <col min="5" max="5" width="40.1796875" customWidth="1"/>
     <col min="6" max="6" width="65.1796875" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" customWidth="1"/>
   </cols>
@@ -572,1655 +611,1596 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:26" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:26" ht="113.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" ht="109.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="D7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="C10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="C11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="143.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="C12" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="D12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="16"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="16"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="16"/>
-      <c r="B107" s="16"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="16"/>
-      <c r="B108" s="16"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="16"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="16"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="6"/>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="16"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="16"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="16"/>
-      <c r="B116" s="16"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="16"/>
-      <c r="B117" s="16"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="6"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="16"/>
-      <c r="B118" s="16"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="16"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
-      <c r="H119" s="15"/>
-      <c r="I119" s="15"/>
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="16"/>
-      <c r="B120" s="16"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="16"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="16"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="16"/>
-      <c r="B123" s="16"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="16"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="16"/>
-      <c r="B125" s="16"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="16"/>
-      <c r="B126" s="16"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="16"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
     </row>
     <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="16"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
     </row>
     <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="16"/>
-      <c r="B129" s="16"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15"/>
-      <c r="I129" s="15"/>
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="16"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
     </row>
     <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="16"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
     </row>
     <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="16"/>
-      <c r="B132" s="16"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
     </row>
     <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="16"/>
-      <c r="B133" s="16"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
-      <c r="H133" s="15"/>
-      <c r="I133" s="15"/>
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
     </row>
     <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="16"/>
-      <c r="B134" s="16"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
     </row>
     <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="16"/>
-      <c r="B135" s="16"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
     </row>
     <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="16"/>
-      <c r="B136" s="16"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
-      <c r="H136" s="15"/>
-      <c r="I136" s="15"/>
-    </row>
-    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="17"/>
-      <c r="B137" s="17"/>
-    </row>
-    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="17"/>
-      <c r="B138" s="17"/>
-    </row>
-    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="17"/>
-      <c r="B139" s="17"/>
-    </row>
-    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="17"/>
-      <c r="B140" s="17"/>
-    </row>
-    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="17"/>
-      <c r="B141" s="17"/>
-    </row>
-    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="17"/>
-      <c r="B142" s="17"/>
-    </row>
-    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="17"/>
-      <c r="B143" s="17"/>
-    </row>
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+    </row>
+    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3071,18 +3051,14 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" xr:uid="{C33D33E3-06FB-470E-A140-6D612B17C355}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{C33D33E3-06FB-470E-A140-6D612B17C355}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{2DB29F5F-3511-41E0-8F93-C49053480FD8}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{BCFB7900-B376-4710-BA1B-A0DEF6F8BBE7}"/>
+    <hyperlink ref="F5" r:id="rId4" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist" xr:uid="{311DBCEE-4994-43A2-8F5E-FD49EDBD3E73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>
--- a/P4_Audit.xlsx
+++ b/P4_Audit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Berri_Sarah_4_092022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C138D44-5CDC-4280-A1CE-575FA59108B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E1FDA6-821D-44CF-A681-E7AD240E2BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>Catégorie</t>
   </si>
@@ -76,6 +76,138 @@
   </si>
   <si>
     <t>Absence de h2 dans certaines parties du code</t>
+  </si>
+  <si>
+    <t>Favorisez les h2 pour chaque parties et respecter la hiérarchie</t>
+  </si>
+  <si>
+    <t>Ne passe pas le validateur  3WC</t>
+  </si>
+  <si>
+    <t>Les pages doivent passer la validation du 3WC</t>
+  </si>
+  <si>
+    <t>Le footer contient trop de lien qui n'ont pas de rapport avec le thème du site</t>
+  </si>
+  <si>
+    <t>Les mots-clés sont incohérents</t>
+  </si>
+  <si>
+    <t>Il est recommander de rajouter des mots-clés qui soient pertinents dans les balises titles, description</t>
+  </si>
+  <si>
+    <t>le CSS et le Js ne sont pas minifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette balise est obsolète car non lue par Google </t>
+  </si>
+  <si>
+    <t>Responsivité</t>
+  </si>
+  <si>
+    <t>Acessibilité</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055226-pensez-mobile-first</t>
+  </si>
+  <si>
+    <t>Avoir peu de liens mais de façon efficace et intelligente   Supprimer les liens qui n'ont pas de rapport avec le thème</t>
+  </si>
+  <si>
+    <t>Couleurs et textes</t>
+  </si>
+  <si>
+    <t>Le site n'est pas responsive, certains textes et images ne sont pas centrées et coupés dans la partie tablette et mobile</t>
+  </si>
+  <si>
+    <t>La taille de textes est trop petite, le contraste entre la couleur de fonds et les textes est trop faible</t>
+  </si>
+  <si>
+    <t>Réduction de la taille des fichiers pour diminuer le temps de chargement des pages</t>
+  </si>
+  <si>
+    <t>Formulaire</t>
+  </si>
+  <si>
+    <t>Le formulaire est accessible mais des modifications doivent y être apportées notamment les labels, il faudrait également modifier le design du formulaire</t>
+  </si>
+  <si>
+    <t>Le formulaire doit être améliorer, modifier le style des champs de saisies</t>
+  </si>
+  <si>
+    <t>Il faut que le site soit totalement responsive, et peu importe la taille de l'écran, il doit s'adapter</t>
+  </si>
+  <si>
+    <t>Les balises keywords ont été supprimées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiérarchie des balises,h1, h2 respectée : un seul h1 par page </t>
+  </si>
+  <si>
+    <t>Les pages passent la validation 3WC sans erreur</t>
+  </si>
+  <si>
+    <t>L'URL de contact a été renommé, les balises title et lang ont été renommées, La description des images dans l'attribut alt a été correctement exécutée</t>
+  </si>
+  <si>
+    <t>Renommer l'URL de la page contact                            Renommer les balises lang et title                                                                                   Ajouter une description d'images dans les attributs alt et non une répétition de mots                                                                     Ajout des balises méta keywords, description, et robots</t>
+  </si>
+  <si>
+    <t>L'URL de la page contact ne comporte pas le nom de la page                                                                              les balises lang et title ne sont pas complétées              les attributs alt des images sont toutes identiques             Les balises méta description et robots non paramétrées</t>
+  </si>
+  <si>
+    <t>Contenu</t>
+  </si>
+  <si>
+    <t>Le site est bien responsive</t>
+  </si>
+  <si>
+    <t>Le formulaire est clair, et les labels ont été complétés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augmentez la taille des textes Et leur couleur afin d'avoir une cohérence entre les deux </t>
+  </si>
+  <si>
+    <t>Les textes ont été agrandit et la couleur des texte a été modifier</t>
+  </si>
+  <si>
+    <t>https://rgaa.tanaguru.com/rgaa3-criteres.html#test-3-3-1</t>
+  </si>
+  <si>
+    <t>Balise méta = "keywords"</t>
+  </si>
+  <si>
+    <t>Les fichiers JS ont été minifier afin de réduire le temps de chargement des pages</t>
+  </si>
+  <si>
+    <t>https://web.dev/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=unknown</t>
+  </si>
+  <si>
+    <t>Les liens qui n'ont pas,de rapport avec le site ont été supprimés</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/exercises/4350</t>
+  </si>
+  <si>
+    <t>Des mots-clés pertinents ont été ajoutés</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578346-augmentez-lautorite-de-votre-site</t>
+  </si>
+  <si>
+    <t>Fichiers JS non defer</t>
+  </si>
+  <si>
+    <t>Sert à différer le chargement des pages du site</t>
+  </si>
+  <si>
+    <t>Ajouter defer aux balises</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/script</t>
   </si>
   <si>
     <r>
@@ -83,7 +215,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="18"/>
         <color theme="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -93,7 +225,7 @@
     <r>
       <rPr>
         <u/>
-        <sz val="12"/>
+        <sz val="18"/>
         <color theme="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
@@ -101,84 +233,12 @@
       <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
     </r>
   </si>
-  <si>
-    <t>Favorisez les h2 pour chaque parties et respecter la hiérarchie</t>
-  </si>
-  <si>
-    <t>Ne passe pas le validateur  3WC</t>
-  </si>
-  <si>
-    <t>Les pages doivent passer la validation du 3WC</t>
-  </si>
-  <si>
-    <t>Le footer contient trop de lien qui n'ont pas de rapport avec le thème du site</t>
-  </si>
-  <si>
-    <t>Les mots-clés sont incohérents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'URL de la page contact ne comporte pas le nom de la page                                                                              les balises lang et title ne sont pas complétées,            les attributs alt des images sont toutes identiques  </t>
-  </si>
-  <si>
-    <t>Il est recommander de rajouter des mots-clés qui soient pertinents dans les balises titles, description</t>
-  </si>
-  <si>
-    <t>le CSS et le Js ne sont pas minifier</t>
-  </si>
-  <si>
-    <t>Balise "keywords"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cette balise est obsolète car non lue par Google </t>
-  </si>
-  <si>
-    <t>Renommer l'URL de la page contact                            Renommer les balises lang et title                                                                                   Ajouter une description d'images dans les attributs alt et non une répétition de mots</t>
-  </si>
-  <si>
-    <t>Responsivité</t>
-  </si>
-  <si>
-    <t>Acessibilité</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055226-pensez-mobile-first</t>
-  </si>
-  <si>
-    <t>Avoir peu de liens mais de façon efficace et intelligente   Supprimer les liens qui n'ont pas de rapport avec le thème</t>
-  </si>
-  <si>
-    <t>Couleurs et textes</t>
-  </si>
-  <si>
-    <t>Le site n'est pas responsive, certains textes et images ne sont pas centrées et coupés dans la partie tablette et mobile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augmentez la taille des textes et le contraste afin d'avoir une cohérence entre les deux </t>
-  </si>
-  <si>
-    <t>La taille de textes est trop petite, le contraste entre la couleur de fonds et les textes est trop faible</t>
-  </si>
-  <si>
-    <t>Réduction de la taille des fichiers pour diminuer le temps de chargement des pages</t>
-  </si>
-  <si>
-    <t>Formulaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il faut que le site soit totalement responsive, et peu importe la taille d l'écran, il doit s'adapter à ceux-ci, </t>
-  </si>
-  <si>
-    <t>Le formulaire est accessible mais des modifications peuvent être y apportées</t>
-  </si>
-  <si>
-    <t>Revoir le design du formulaire et sa mise en page par exemple</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -199,18 +259,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -225,7 +273,27 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -290,15 +358,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -310,32 +378,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -554,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z993"/>
+  <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -567,7 +640,7 @@
     <col min="3" max="3" width="47.26953125" customWidth="1"/>
     <col min="4" max="4" width="53.1796875" customWidth="1"/>
     <col min="5" max="5" width="40.1796875" customWidth="1"/>
-    <col min="6" max="6" width="65.1796875" customWidth="1"/>
+    <col min="6" max="6" width="91.453125" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -611,45 +684,47 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:26" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="5"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="113.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="5"/>
@@ -657,21 +732,23 @@
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:26" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="5"/>
@@ -679,177 +756,217 @@
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="109.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:26" ht="172.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12" t="s">
-        <v>15</v>
+      <c r="D5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:26" ht="109.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:26" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="C7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:26" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:26" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16" t="s">
-        <v>29</v>
+    <row r="10" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="143.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+    <row r="13" spans="1:26" ht="172.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -1275,893 +1392,894 @@
       <c r="I48" s="5"/>
       <c r="J48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
-    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="6"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="6"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="6"/>
-      <c r="F106" s="6"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="6"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="6"/>
-      <c r="F110" s="6"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="6"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="6"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="6"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="6"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="6"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="6"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="6"/>
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="6"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="6"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="6"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="6"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="6"/>
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
     </row>
     <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="6"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
     </row>
     <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="6"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
@@ -2169,55 +2287,205 @@
     <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="8"/>
       <c r="B130" s="8"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
     </row>
     <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11"/>
     </row>
     <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8"/>
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
     </row>
     <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
     </row>
     <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
     </row>
     <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="11"/>
+      <c r="F135" s="11"/>
     </row>
     <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-    </row>
-    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11"/>
+      <c r="F136" s="11"/>
+    </row>
+    <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+    </row>
+    <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="11"/>
+      <c r="F138" s="11"/>
+    </row>
+    <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+    </row>
+    <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+    </row>
+    <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+    </row>
+    <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="11"/>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3051,14 +3319,22 @@
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{C33D33E3-06FB-470E-A140-6D612B17C355}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{2DB29F5F-3511-41E0-8F93-C49053480FD8}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{BCFB7900-B376-4710-BA1B-A0DEF6F8BBE7}"/>
     <hyperlink ref="F5" r:id="rId4" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist" xr:uid="{311DBCEE-4994-43A2-8F5E-FD49EDBD3E73}"/>
+    <hyperlink ref="F6" r:id="rId5" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist" xr:uid="{FAFE0CED-F9D7-43C2-B97B-3690F51E85EC}"/>
+    <hyperlink ref="F11" r:id="rId6" location="test-3-3-1" xr:uid="{71AF6E9A-7110-40D0-BD74-4C06CD18622B}"/>
+    <hyperlink ref="F12" r:id="rId7" location="test-3-3-1" xr:uid="{108DEA9F-3B87-4B77-A18D-93C44FC06499}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{467C0A8A-05E2-4170-A2D6-6065357EAC1C}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{6FF4161A-9EF9-4E2A-B228-DE53217FE978}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{6BAD20B1-685A-40E4-BE86-3F920428288B}"/>
+    <hyperlink ref="F9" r:id="rId11" xr:uid="{B47C802B-A761-4E3E-A99A-28D370CB3D6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId5"/>
+  <pageSetup orientation="landscape" r:id="rId12"/>
 </worksheet>
 </file>
--- a/P4_Audit.xlsx
+++ b/P4_Audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Berri_Sarah_4_092022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E1FDA6-821D-44CF-A681-E7AD240E2BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE750691-8F4F-462A-B1C9-4B77C819B5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Il est recommander de rajouter des mots-clés qui soient pertinents dans les balises titles, description</t>
   </si>
   <si>
-    <t>le CSS et le Js ne sont pas minifier</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cette balise est obsolète car non lue par Google </t>
   </si>
   <si>
@@ -150,12 +147,6 @@
     <t>L'URL de contact a été renommé, les balises title et lang ont été renommées, La description des images dans l'attribut alt a été correctement exécutée</t>
   </si>
   <si>
-    <t>Renommer l'URL de la page contact                            Renommer les balises lang et title                                                                                   Ajouter une description d'images dans les attributs alt et non une répétition de mots                                                                     Ajout des balises méta keywords, description, et robots</t>
-  </si>
-  <si>
-    <t>L'URL de la page contact ne comporte pas le nom de la page                                                                              les balises lang et title ne sont pas complétées              les attributs alt des images sont toutes identiques             Les balises méta description et robots non paramétrées</t>
-  </si>
-  <si>
     <t>Contenu</t>
   </si>
   <si>
@@ -175,9 +166,6 @@
   </si>
   <si>
     <t>Balise méta = "keywords"</t>
-  </si>
-  <si>
-    <t>Les fichiers JS ont été minifier afin de réduire le temps de chargement des pages</t>
   </si>
   <si>
     <t>https://web.dev/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=unknown</t>
@@ -232,6 +220,18 @@
       </rPr>
       <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
     </r>
+  </si>
+  <si>
+    <t>Minification JS</t>
+  </si>
+  <si>
+    <t>Les fichiers JS requis ont été minifier afin de réduire le temps de chargement des pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'URL de la page contact ne comporte pas le nom de la page                                                                              Les balises lang et title ne sont pas complétées                                   Les attributs alt des images sont toutes identiques                                     Les balises méta description et robots non paramétrées                                Pas de texte en image </t>
+  </si>
+  <si>
+    <t>Renommer l'URL de la page contact                            Renommer les balises lang et title                                                                                   Ajouter une description d'images dans les attributs alt et non une répétition de mots                                                                     Ajout des balises méta keywords, description, et robots                                  Enlever l'image en tant que texte</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,9 +378,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -394,22 +391,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -629,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -684,305 +696,305 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:26" s="17" customFormat="1" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" ht="159" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:26" s="17" customFormat="1" ht="241.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" s="17" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:26" s="17" customFormat="1" ht="172.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:26" s="17" customFormat="1" ht="109.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:26" s="17" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:26" s="17" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:26" s="17" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:26" s="17" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:26" s="17" customFormat="1" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:26" s="17" customFormat="1" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:26" s="17" customFormat="1" ht="172.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:26" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="F13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:26" ht="172.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:26" ht="109.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" ht="172.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="4"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:26" s="17" customFormat="1" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -1405,1079 +1417,1079 @@
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="6"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="I100" s="6"/>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
       <c r="I101" s="6"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
       <c r="I102" s="6"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
       <c r="I107" s="6"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
       <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
       <c r="I109" s="6"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
       <c r="I110" s="6"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
+      <c r="A114" s="7"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
     </row>
     <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
+      <c r="A116" s="7"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
       <c r="I116" s="6"/>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
       <c r="I117" s="6"/>
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
+      <c r="A118" s="7"/>
+      <c r="B118" s="7"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
       <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
       <c r="I119" s="6"/>
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
       <c r="I120" s="6"/>
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
       <c r="I121" s="6"/>
     </row>
     <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="8"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
     </row>
     <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="8"/>
-      <c r="B124" s="8"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
+      <c r="A124" s="7"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
     </row>
     <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="8"/>
-      <c r="B125" s="8"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
+      <c r="A125" s="7"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
       <c r="I125" s="6"/>
     </row>
     <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="8"/>
-      <c r="B126" s="8"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
+      <c r="A126" s="7"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
       <c r="I127" s="6"/>
     </row>
     <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
       <c r="I128" s="6"/>
     </row>
     <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
       <c r="I129" s="6"/>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
+      <c r="A130" s="7"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
       <c r="I130" s="6"/>
     </row>
     <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="10"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
+      <c r="A131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
     </row>
     <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="10"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
+      <c r="A132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
     </row>
     <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="10"/>
-      <c r="B133" s="10"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
+      <c r="A133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
     </row>
     <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="10"/>
-      <c r="B134" s="10"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
+      <c r="A134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
     </row>
     <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="10"/>
-      <c r="B135" s="10"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
+      <c r="A135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
     </row>
     <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="10"/>
-      <c r="B136" s="10"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
+      <c r="A136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
     </row>
     <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="10"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
     </row>
     <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
-      <c r="E138" s="11"/>
-      <c r="F138" s="11"/>
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
     </row>
     <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
-      <c r="E140" s="11"/>
-      <c r="F140" s="11"/>
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
     </row>
     <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="11"/>
-      <c r="E141" s="11"/>
-      <c r="F141" s="11"/>
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
     </row>
     <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
     </row>
     <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
     </row>
     <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
     </row>
     <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
     </row>
     <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="11"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-      <c r="F146" s="11"/>
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
     </row>
     <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-      <c r="F147" s="11"/>
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
     </row>
     <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
-      <c r="F148" s="11"/>
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
     </row>
     <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
-      <c r="E149" s="11"/>
-      <c r="F149" s="11"/>
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
     </row>
     <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11"/>
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
     </row>
     <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="11"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="11"/>
-      <c r="E151" s="11"/>
-      <c r="F151" s="11"/>
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
     </row>
     <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
     </row>
     <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="11"/>
-      <c r="F153" s="11"/>
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
     </row>
     <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/P4_Audit.xlsx
+++ b/P4_Audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Berri_Sarah_4_092022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE750691-8F4F-462A-B1C9-4B77C819B5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80176A05-BBFB-406C-8C94-104AE6CC55C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055226-pensez-mobile-first</t>
   </si>
   <si>
-    <t>Avoir peu de liens mais de façon efficace et intelligente   Supprimer les liens qui n'ont pas de rapport avec le thème</t>
-  </si>
-  <si>
     <t>Couleurs et textes</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
   </si>
   <si>
     <t>Contenu</t>
-  </si>
-  <si>
-    <t>Le site est bien responsive</t>
   </si>
   <si>
     <t>Le formulaire est clair, et les labels ont été complétés</t>
@@ -222,9 +216,6 @@
     </r>
   </si>
   <si>
-    <t>Minification JS</t>
-  </si>
-  <si>
     <t>Les fichiers JS requis ont été minifier afin de réduire le temps de chargement des pages</t>
   </si>
   <si>
@@ -232,6 +223,15 @@
   </si>
   <si>
     <t>Renommer l'URL de la page contact                            Renommer les balises lang et title                                                                                   Ajouter une description d'images dans les attributs alt et non une répétition de mots                                                                     Ajout des balises méta keywords, description, et robots                                  Enlever l'image en tant que texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minification des fichiers JavaScript </t>
+  </si>
+  <si>
+    <t>Avoir peu de liens mais de façon efficace et intelligente / Supprimer les liens qui n'ont pas de rapport avec le thème</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site est bien responsive, le chargement </t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,15 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -411,17 +402,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -641,17 +644,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.81640625" customWidth="1"/>
-    <col min="2" max="2" width="28.08984375" customWidth="1"/>
-    <col min="3" max="3" width="47.26953125" customWidth="1"/>
-    <col min="4" max="4" width="53.1796875" customWidth="1"/>
-    <col min="5" max="5" width="40.1796875" customWidth="1"/>
+    <col min="2" max="2" width="37.6328125" customWidth="1"/>
+    <col min="3" max="3" width="75.1796875" customWidth="1"/>
+    <col min="4" max="4" width="65.08984375" customWidth="1"/>
+    <col min="5" max="5" width="65" customWidth="1"/>
     <col min="6" max="6" width="91.453125" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" customWidth="1"/>
   </cols>
@@ -696,223 +699,223 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" s="17" customFormat="1" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:26" s="14" customFormat="1" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-    </row>
-    <row r="3" spans="1:26" s="17" customFormat="1" ht="241.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="241.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:26" s="14" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:26" s="14" customFormat="1" ht="172.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:26" s="14" customFormat="1" ht="109.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:26" s="14" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:26" s="14" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:26" s="14" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="E9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:26" s="14" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:26" s="17" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:26" s="17" customFormat="1" ht="172.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:26" s="17" customFormat="1" ht="109.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:26" s="17" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:26" s="17" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-    </row>
-    <row r="9" spans="1:26" s="17" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="C10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-    </row>
-    <row r="10" spans="1:26" s="17" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-    </row>
-    <row r="11" spans="1:26" s="17" customFormat="1" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:26" s="14" customFormat="1" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>23</v>
       </c>
@@ -920,81 +923,81 @@
         <v>22</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-    </row>
-    <row r="12" spans="1:26" s="17" customFormat="1" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:26" s="14" customFormat="1" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-    </row>
-    <row r="13" spans="1:26" s="17" customFormat="1" ht="172.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:26" s="14" customFormat="1" ht="172.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>32</v>
-      </c>
       <c r="E13" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:26" s="17" customFormat="1" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:26" s="14" customFormat="1" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>

--- a/P4_Audit.xlsx
+++ b/P4_Audit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Berri_Sarah_4_092022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80176A05-BBFB-406C-8C94-104AE6CC55C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A5A053-8D7A-416E-8AD8-194A13C960E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>Formulaire</t>
   </si>
   <si>
-    <t>Le formulaire est accessible mais des modifications doivent y être apportées notamment les labels, il faudrait également modifier le design du formulaire</t>
-  </si>
-  <si>
     <t>Le formulaire doit être améliorer, modifier le style des champs de saisies</t>
   </si>
   <si>
@@ -148,15 +145,6 @@
   </si>
   <si>
     <t>Le formulaire est clair, et les labels ont été complétés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augmentez la taille des textes Et leur couleur afin d'avoir une cohérence entre les deux </t>
-  </si>
-  <si>
-    <t>Les textes ont été agrandit et la couleur des texte a été modifier</t>
-  </si>
-  <si>
-    <t>https://rgaa.tanaguru.com/rgaa3-criteres.html#test-3-3-1</t>
   </si>
   <si>
     <t>Balise méta = "keywords"</t>
@@ -232,6 +220,29 @@
   </si>
   <si>
     <t xml:space="preserve">Le site est bien responsive, le chargement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le formulaire est accessible mais des modifications doivent y être apportées notamment les labels, il faudrait également modifier le design du formulaire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augmentez la taille des textes, et régler les problèmes de contrast afin d'avoir une cohérence entre les deux </t>
+  </si>
+  <si>
+    <t>Les textes ont été agrandit et la couleur des texte a été modifier, le contrast est correct</t>
+  </si>
+  <si>
+    <r>
+      <t>https://rgaa.tanaguru.com/rgaa3-criteres.html#test-3-3-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -644,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J12" sqref="I12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -731,13 +742,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>12</v>
@@ -755,13 +766,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>13</v>
@@ -785,10 +796,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -800,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>14</v>
@@ -809,10 +820,10 @@
         <v>15</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -827,16 +838,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -851,16 +862,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -872,19 +883,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>48</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -896,7 +907,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>19</v>
@@ -905,10 +916,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -926,10 +937,10 @@
         <v>26</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>24</v>
@@ -950,13 +961,13 @@
         <v>27</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -971,16 +982,16 @@
         <v>29</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="E13" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -3343,11 +3354,11 @@
     <hyperlink ref="F5" r:id="rId4" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist" xr:uid="{311DBCEE-4994-43A2-8F5E-FD49EDBD3E73}"/>
     <hyperlink ref="F6" r:id="rId5" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist" xr:uid="{FAFE0CED-F9D7-43C2-B97B-3690F51E85EC}"/>
     <hyperlink ref="F11" r:id="rId6" location="test-3-3-1" xr:uid="{71AF6E9A-7110-40D0-BD74-4C06CD18622B}"/>
-    <hyperlink ref="F12" r:id="rId7" location="test-3-3-1" xr:uid="{108DEA9F-3B87-4B77-A18D-93C44FC06499}"/>
-    <hyperlink ref="F7" r:id="rId8" xr:uid="{467C0A8A-05E2-4170-A2D6-6065357EAC1C}"/>
-    <hyperlink ref="F13" r:id="rId9" xr:uid="{6FF4161A-9EF9-4E2A-B228-DE53217FE978}"/>
-    <hyperlink ref="F10" r:id="rId10" xr:uid="{6BAD20B1-685A-40E4-BE86-3F920428288B}"/>
-    <hyperlink ref="F9" r:id="rId11" xr:uid="{B47C802B-A761-4E3E-A99A-28D370CB3D6D}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{467C0A8A-05E2-4170-A2D6-6065357EAC1C}"/>
+    <hyperlink ref="F13" r:id="rId8" xr:uid="{6FF4161A-9EF9-4E2A-B228-DE53217FE978}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{6BAD20B1-685A-40E4-BE86-3F920428288B}"/>
+    <hyperlink ref="F9" r:id="rId10" xr:uid="{B47C802B-A761-4E3E-A99A-28D370CB3D6D}"/>
+    <hyperlink ref="F12" r:id="rId11" location="test-3-3-1" display="https://rgaa.tanaguru.com/rgaa3-criteres.html#test-3-3-1" xr:uid="{108DEA9F-3B87-4B77-A18D-93C44FC06499}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId12"/>

--- a/P4_Audit.xlsx
+++ b/P4_Audit.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\Berri_Sarah_4_092022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FA6E2D-A4A0-4E58-915A-5B28F2A5BFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE17B967-0BD7-4F62-9165-3B5AED135550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9612" yWindow="12" windowWidth="14004" windowHeight="11868" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11856" windowHeight="11916" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$F$12</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Catégorie</t>
   </si>
@@ -84,9 +87,6 @@
     <t>Il est recommander de rajouter des mots-clés qui soient pertinents dans les balises titles, description</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette balise est obsolète car non lue par Google </t>
-  </si>
-  <si>
     <t>Responsivité</t>
   </si>
   <si>
@@ -99,40 +99,19 @@
     <t>Couleurs et textes</t>
   </si>
   <si>
-    <t>La taille de textes est trop petite, le contraste entre la couleur de fonds et les textes est trop faible</t>
-  </si>
-  <si>
-    <t>Réduction de la taille des fichiers pour diminuer le temps de chargement des pages</t>
-  </si>
-  <si>
     <t>Formulaire</t>
   </si>
   <si>
     <t>Le formulaire doit être améliorer, modifier le style des champs de saisies</t>
   </si>
   <si>
-    <t>Les balises keywords ont été supprimées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiérarchie des balises,h1, h2 respectée : un seul h1 par page </t>
-  </si>
-  <si>
     <t>Les pages passent la validation 3WC sans erreur</t>
   </si>
   <si>
-    <t>L'URL de contact a été renommé, les balises title et lang ont été renommées, La description des images dans l'attribut alt a été correctement exécutée</t>
-  </si>
-  <si>
     <t>Contenu</t>
   </si>
   <si>
     <t>Le formulaire est clair, et les labels ont été complétés</t>
-  </si>
-  <si>
-    <t>Balise méta = "keywords"</t>
-  </si>
-  <si>
-    <t>https://web.dev/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=unknown</t>
   </si>
   <si>
     <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
@@ -171,12 +150,6 @@
     </r>
   </si>
   <si>
-    <t>Les fichiers JS requis ont été minifier afin de réduire le temps de chargement des pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minification des fichiers JavaScript </t>
-  </si>
-  <si>
     <t>Avoir peu de liens mais de façon efficace et intelligente / Supprimer les liens qui n'ont pas de rapport avec le thème</t>
   </si>
   <si>
@@ -197,24 +170,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">L'URL de la page contact ne comporte pas le nom de la page                                                                              Les balises lang et title ne sont pas complétées                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renommer l'URL de la page contact                            Renommer les balises lang et title                                                                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les attributs alt des images sont toutes identiques                                    Les balises méta description et robots non paramétrées                                Pas de texte en image </t>
-  </si>
-  <si>
-    <t>Ajouter une description d'images dans les attributs alt et non une répétition de mots                                                                     Paramétrer les balises méta description, et robots                                                                 Enlever l'image en tant que texte</t>
-  </si>
-  <si>
     <t>L'attribut alt des images a bien été fait                     Les balises méta : description et robots ont été ajoutées                                                                 Les textes en tant qu'image ont été supprimées</t>
   </si>
   <si>
-    <t>Le site n'est pas responsive                                                 Les images ne sont pas bonnes, le format non plus et le poids</t>
-  </si>
-  <si>
     <t>Il faut que le site soit totalement responsive, et les images au bon format (webp, AVIF par exemple)</t>
   </si>
   <si>
@@ -228,6 +186,60 @@
   </si>
   <si>
     <t>Les textes ont été agrandit et la couleur des texte a été modifier, la couleur d'arrière plan a été modifié avant de palier les erreurs de contrast</t>
+  </si>
+  <si>
+    <t>Ajouter une description d'images dans les attributs alt et non une répétition de mots                                                                     Paramétrer les balises méta description, et robots                                                                      Enlever l'image en tant que texte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les attributs alt des images sont une répétition de mots                                   Les balises méta description et robots non paramétrées                                Pas de texte en image </t>
+  </si>
+  <si>
+    <t>Il est recommander d'utiliser le format AVIF ou WEBP</t>
+  </si>
+  <si>
+    <t>Les images ont été implémentées au bon format</t>
+  </si>
+  <si>
+    <t>Images format bmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renommer l'URL de la page index et contact                            Renommer les balises lang et title dans les deux pages                                                                                   </t>
+  </si>
+  <si>
+    <t>L' URLs des pages a été renommé, les balises title et lang ont été renommées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'URL de la page contact et index ne comporte pas le nom de la page                                                                                                        Les balises lang et title ne sont pas complétées dans les deux pages                                   </t>
+  </si>
+  <si>
+    <t>La balise "méta= keywords" aété supprimée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiérarchie des balises, h1 et ensuite h2 respectée : un seul h1 par page </t>
+  </si>
+  <si>
+    <t>Le site n'est pas responsive                                                                Les images ne sont pas bonnes, le format non plus et le poids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigation </t>
+  </si>
+  <si>
+    <t>Le menu de navigation de la page contact est mal positionné, à la place il y a un message : "toggle navigation"</t>
+  </si>
+  <si>
+    <t>La barre de navigation a bien été positionnée</t>
+  </si>
+  <si>
+    <t>Avoir un menu de navigation est parfois essentiel</t>
+  </si>
+  <si>
+    <t>La police des textes est trop petite, le contraste entre la couleur de fonds et les textes est trop faible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette balise est obsolète car non lue par Google, préférer le travail sur la balise description </t>
+  </si>
+  <si>
+    <t>Balise méta = "keywords" / balise description</t>
   </si>
 </sst>
 </file>
@@ -321,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -330,16 +342,162 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -349,7 +507,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -388,8 +546,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -397,20 +558,44 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,40 +813,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Z993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.81640625" customWidth="1"/>
     <col min="2" max="2" width="37.6328125" customWidth="1"/>
-    <col min="3" max="3" width="75.1796875" customWidth="1"/>
-    <col min="4" max="4" width="65.08984375" customWidth="1"/>
+    <col min="3" max="3" width="83.36328125" customWidth="1"/>
+    <col min="4" max="4" width="70.54296875" customWidth="1"/>
     <col min="5" max="5" width="65" customWidth="1"/>
     <col min="6" max="6" width="91.453125" customWidth="1"/>
     <col min="7" max="26" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:26" ht="115.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1"/>
@@ -685,23 +873,23 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" s="12" customFormat="1" ht="213.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:26" s="12" customFormat="1" ht="213.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="10"/>
@@ -709,23 +897,23 @@
       <c r="I2" s="10"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:26" s="12" customFormat="1" ht="213.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:26" s="12" customFormat="1" ht="213.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="10"/>
@@ -733,23 +921,23 @@
       <c r="I3" s="10"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:26" s="12" customFormat="1" ht="156" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:26" s="12" customFormat="1" ht="156" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="10"/>
@@ -757,11 +945,11 @@
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:26" s="12" customFormat="1" ht="172.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:26" s="12" customFormat="1" ht="172.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -770,23 +958,23 @@
       <c r="D5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>38</v>
+      <c r="E5" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:26" s="12" customFormat="1" ht="109.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:26" s="12" customFormat="1" ht="109.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>30</v>
+      <c r="B6" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>10</v>
@@ -794,174 +982,184 @@
       <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>38</v>
+      <c r="E6" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>30</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:26" s="12" customFormat="1" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:26" s="12" customFormat="1" ht="115.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>7</v>
+      <c r="B7" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:26" s="12" customFormat="1" ht="115.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:26" s="12" customFormat="1" ht="115.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>37</v>
+      <c r="B8" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:26" s="12" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:26" s="12" customFormat="1" ht="117" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>35</v>
+      <c r="B9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>27</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:26" s="12" customFormat="1" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:26" s="12" customFormat="1" ht="139.80000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:26" s="12" customFormat="1" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>43</v>
+    <row r="11" spans="1:26" s="12" customFormat="1" ht="158.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:26" s="12" customFormat="1" ht="172.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="15" t="s">
+    <row r="12" spans="1:26" s="12" customFormat="1" ht="172.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>34</v>
+      <c r="F12" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:26" s="12" customFormat="1" ht="158.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+    <row r="13" spans="1:26" s="12" customFormat="1" ht="158.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="17"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="4"/>
@@ -3304,14 +3502,14 @@
     <hyperlink ref="F5" r:id="rId3" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist" xr:uid="{311DBCEE-4994-43A2-8F5E-FD49EDBD3E73}"/>
     <hyperlink ref="F6" r:id="rId4" display="https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist" xr:uid="{FAFE0CED-F9D7-43C2-B97B-3690F51E85EC}"/>
     <hyperlink ref="F10" r:id="rId5" location="test-3-3-1" xr:uid="{71AF6E9A-7110-40D0-BD74-4C06CD18622B}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{467C0A8A-05E2-4170-A2D6-6065357EAC1C}"/>
-    <hyperlink ref="F12" r:id="rId7" xr:uid="{6FF4161A-9EF9-4E2A-B228-DE53217FE978}"/>
-    <hyperlink ref="F9" r:id="rId8" xr:uid="{6BAD20B1-685A-40E4-BE86-3F920428288B}"/>
-    <hyperlink ref="F8" r:id="rId9" xr:uid="{B47C802B-A761-4E3E-A99A-28D370CB3D6D}"/>
-    <hyperlink ref="F11" r:id="rId10" location="test-3-3-1" display="https://rgaa.tanaguru.com/rgaa3-criteres.html#test-3-3-1" xr:uid="{108DEA9F-3B87-4B77-A18D-93C44FC06499}"/>
-    <hyperlink ref="F3" r:id="rId11" xr:uid="{2B44DC94-1F8E-4B92-B45E-1E584914F92E}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{6FF4161A-9EF9-4E2A-B228-DE53217FE978}"/>
+    <hyperlink ref="F9" r:id="rId7" xr:uid="{6BAD20B1-685A-40E4-BE86-3F920428288B}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{B47C802B-A761-4E3E-A99A-28D370CB3D6D}"/>
+    <hyperlink ref="F11" r:id="rId9" location="test-3-3-1" display="https://rgaa.tanaguru.com/rgaa3-criteres.html#test-3-3-1" xr:uid="{108DEA9F-3B87-4B77-A18D-93C44FC06499}"/>
+    <hyperlink ref="F3" r:id="rId10" xr:uid="{2B44DC94-1F8E-4B92-B45E-1E584914F92E}"/>
+    <hyperlink ref="F8" r:id="rId11" xr:uid="{3EDDDD96-C215-47A6-B1E1-E6F0201E9485}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId12"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" orientation="landscape" r:id="rId12"/>
 </worksheet>
 </file>